--- a/ros_bridge/src/carla_data/lap_data3.xlsx
+++ b/ros_bridge/src/carla_data/lap_data3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,258 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.54570708784715</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1324553132933294</v>
+      </c>
+      <c r="D7" t="n">
+        <v>324.6387547701597</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.08605541157885</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.987067546695471</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-6.353960990905762</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.077399253845215</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.771208763122559</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.002383582759648561</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002950377762317657</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7318683862686157</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32.08025464895623</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.78005459851195</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.988672733306885</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.242577002473674</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>75.59976796700001</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2025-03-13 11:35:25</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>vehicle.audi.tt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23.55987447823541</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1797150449823201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300.2533820915851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>89.39837857880048</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.169530882267281</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.40120887756348</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-11.88510990142822</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.256114959716797</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0362691804766655</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01507757976651192</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7438327670097351</v>
+      </c>
+      <c r="M8" t="n">
+        <v>32.08028278065005</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34.78002200016292</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.008126497268677</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.466733557794535</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>75.59635635399999</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2025-03-13 11:36:40</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>vehicle.jeep.wrangler_rubicon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.7527360511321</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1203221819436215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>307.2022817060351</v>
+      </c>
+      <c r="E9" t="n">
+        <v>119.6239734396804</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.658471006667241</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-21.54487609863281</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.195720672607422</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.670732498168945</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.001245453022420406</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03826763853430748</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.765421628952026</v>
+      </c>
+      <c r="M9" t="n">
+        <v>32.08025662965026</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34.78006057102031</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.141137838363647</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.567348476436429</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>75.89933005499999</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2025-03-13 11:37:56</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.coupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.56596341173276</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5875303756695378</v>
+      </c>
+      <c r="D10" t="n">
+        <v>317.6591517813504</v>
+      </c>
+      <c r="E10" t="n">
+        <v>102.5484909420193</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.187297649215907</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.7764067649841309</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.339866161346436</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.262004852294922</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.004473081324249506</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01080887392163277</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7246560454368591</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32.0801092153351</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34.78012582195322</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.998783826828003</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.438746149944794</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>75.59415061599999</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2025-03-13 11:39:12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.coupe_2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ros_bridge/src/carla_data/lap_data3.xlsx
+++ b/ros_bridge/src/carla_data/lap_data3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,384 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.06016896578102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002294959556662829</v>
+      </c>
+      <c r="D11" t="n">
+        <v>473.9336707852781</v>
+      </c>
+      <c r="E11" t="n">
+        <v>113.4843755593174</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.901275970041752</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3273026943206787</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.404465198516846</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.03396511077881</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.0141261350363493</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.00764760747551918</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4508436620235443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32.07910814767075</v>
+      </c>
+      <c r="N11" t="n">
+        <v>34.78034595374852</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.992981791496277</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.579217070074993</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>82.570647411</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:36:51</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.90638750309475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01190849502506625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>435.3277809685096</v>
+      </c>
+      <c r="E12" t="n">
+        <v>110.8955901527079</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.352978865616024</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.297463417053223</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-6.678197383880615</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.789709091186523</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.001004496356472373</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0009123191703110933</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.4723412394523621</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32.07943472061575</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34.78054325839844</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.038751363754272</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.993654337598892</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>78.516544149</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:38:09</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>vehicle.citroen.c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01124353238297381</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.683445229236883e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9441008344292641</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.449541449546814</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.004217132460325956</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.848243236541748</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.148816681961762e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0007947385311126709</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.177044737232791e-06</v>
+      </c>
+      <c r="M13" t="n">
+        <v>32.08033253413927</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.78079790662085</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.97679328918457</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0005727527130562226</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.002568905</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:51:05</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01292331612844646</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.549362268908855e-08</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9255037233233452</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3324514031410217</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.159079298377037</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.329581260681152</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-5.366017830965575e-06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.001075407606549561</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.541746769362362e-06</v>
+      </c>
+      <c r="M14" t="n">
+        <v>32.08033253414786</v>
+      </c>
+      <c r="N14" t="n">
+        <v>34.78079790540754</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.964659690856934</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0009882330150246383</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.001890272</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:51:25</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.94839857982438</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002035810973024618</v>
+      </c>
+      <c r="D15" t="n">
+        <v>454.5780365485698</v>
+      </c>
+      <c r="E15" t="n">
+        <v>121.1400335454091</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.91579941287637</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.642350673675537</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-2.196718692779541</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.721641540527344</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005409983918070793</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.002023346722126007</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.0826999694108963</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32.07936325911004</v>
+      </c>
+      <c r="N15" t="n">
+        <v>34.78046798678554</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.993090510368347</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.706552898533774</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>78.204977752</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:52:43</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.17826071375849</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.006766324397007984</v>
+      </c>
+      <c r="D16" t="n">
+        <v>441.1358654503711</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128.6617263020598</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.733787362463772</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5927786827087402</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-2.620135068893433</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.12887001037598</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.002107508946210146</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.001142786466516554</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0516243688762188</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32.07954763654006</v>
+      </c>
+      <c r="N16" t="n">
+        <v>34.78076612151675</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.038646697998047</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.919670128137543</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>78.749327325</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2025-03-13 17:54:02</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>vehicle.citroen.c3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ros_bridge/src/carla_data/lap_data3.xlsx
+++ b/ros_bridge/src/carla_data/lap_data3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1475,5676 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01447936666679124</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.898070401694673e-08</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.270370647311211</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.289578437805176</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.005829014349728823</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.048469543457031</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.268845608137781e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0006180905038490891</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.305259502260014e-06</v>
+      </c>
+      <c r="M17" t="n">
+        <v>41.99995496524991</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.000142561407178</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.980164408683777</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0007884110521264761</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.952756222</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:35:16</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.85583722110922</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001381547366312165</v>
+      </c>
+      <c r="D18" t="n">
+        <v>245.5851235054433</v>
+      </c>
+      <c r="E18" t="n">
+        <v>42.23416417077533</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04648518189787865</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7428634166717529</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.182584166526794</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.633823394775391</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02173913642764091</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.003424236550927162</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3688894212245941</v>
+      </c>
+      <c r="M18" t="n">
+        <v>41.99932355187786</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.000885396147413</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.993487000465393</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.561580060464639</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>44.632094357</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:36:00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.84126032401154</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.007537857716425169</v>
+      </c>
+      <c r="D19" t="n">
+        <v>234.2945409361273</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42.28960476123029</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05605690367519855</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.2958481311798096</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.066229820251465</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.711272239685059</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01041134539991617</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0009703799150884151</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3440829813480377</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41.99922574616559</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.000532851576946</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.038715839385986</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.362820776766841</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>44.800044428</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:36:45</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>vehicle.citroen.c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14.08443138595058</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.002844682792068707</v>
+      </c>
+      <c r="D20" t="n">
+        <v>309.1502813274274</v>
+      </c>
+      <c r="E20" t="n">
+        <v>49.07730634801555</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.7611119747161865</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.6147623062133789</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.844656944274902</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0163881853222847</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02625277452170849</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7088243365287781</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41.99936559394868</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.000915980310176</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.009374856948853</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.325214758620955</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>46.426558398</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:37:32</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>vehicle.micro.microlino</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.04432912322877</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.007007253992735243</v>
+      </c>
+      <c r="D21" t="n">
+        <v>172.0180070437491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>41.93892346482608</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.350339006632566</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.05222111940383911</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.417111873626709</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.701449394226074</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.006128741428256035</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.001682106405496597</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.148836076259613</v>
+      </c>
+      <c r="M21" t="n">
+        <v>41.99931100848704</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.00086844873193</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.969103932380676</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.681506152867278</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>43.459978201</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:38:15</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>vehicle.dodge.charger_police</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13.81425071387009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.005380814332543986</v>
+      </c>
+      <c r="D22" t="n">
+        <v>171.8893296159804</v>
+      </c>
+      <c r="E22" t="n">
+        <v>37.55275430023903</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.756017011590302</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.50407600402832</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.840102195739746</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.759463310241699</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.004164413549005985</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.001745464280247688</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3540314435958862</v>
+      </c>
+      <c r="M22" t="n">
+        <v>41.99940089417768</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.000945282093938</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.988807678222656</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5323158581998</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>43.230681532</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:38:58</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>vehicle.audi.tt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13.93736428206423</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.00738713853841959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>158.1381508070044</v>
+      </c>
+      <c r="E23" t="n">
+        <v>36.09778676039423</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.416224617511034</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.856595993041992</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.65808486938477</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.898384094238281</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.03873974457383156</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.0004837065935134888</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1722432523965836</v>
+      </c>
+      <c r="M23" t="n">
+        <v>41.99927629652805</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.000819301476035</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.010579586029053</v>
+      </c>
+      <c r="P23" t="n">
+        <v>19.70196568122011</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>43.629009238</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:39:42</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>vehicle.jeep.wrangler_rubicon</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14.41144385361608</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.009384632181955618</v>
+      </c>
+      <c r="D24" t="n">
+        <v>163.7914114324376</v>
+      </c>
+      <c r="E24" t="n">
+        <v>46.91701909989933</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.065088971983641</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001794667914509773</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.03175492584705353</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.969949722290039</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.009800033643841743</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.476914182305336e-05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.2225258350372314</v>
+      </c>
+      <c r="M24" t="n">
+        <v>41.99939064609532</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.000135955622095</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.141489505767822</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.252561199565635</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>44.598645061</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:40:27</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.coupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.72683665778195</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002840852055546785</v>
+      </c>
+      <c r="D25" t="n">
+        <v>173.7642593123019</v>
+      </c>
+      <c r="E25" t="n">
+        <v>49.77607152759447</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.226200642995536</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.885968208312988</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-5.121820449829102</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.694605827331543</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.02105626091361046</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.005784092471003532</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.2877912223339081</v>
+      </c>
+      <c r="M25" t="n">
+        <v>41.99974759849937</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.000792797869998</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.999557733535767</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.428936390913418</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>43.963320228</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:41:11</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.coupe_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13.82608560411392</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001620822227152768</v>
+      </c>
+      <c r="D26" t="n">
+        <v>188.9740150654688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38.83304129444878</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.225022710859776</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5241792798042297</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05907875299453735</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.596845626831055</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01909946836531162</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.007923414930701256</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2843413352966309</v>
+      </c>
+      <c r="M26" t="n">
+        <v>41.99925172731537</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.000769586256741</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.966492772102356</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.265146427253337</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>45.067931737</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:41:56</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>vehicle.harley-davidson.low_rider</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13.84147268312667</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007124993580623762</v>
+      </c>
+      <c r="D27" t="n">
+        <v>172.7179149891017</v>
+      </c>
+      <c r="E27" t="n">
+        <v>42.54702885108418</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.402779266238213</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.3712709546089172</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.4844080209732056</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.871879577636719</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.01180112175643444</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0001574540510773659</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1038117408752441</v>
+      </c>
+      <c r="M27" t="n">
+        <v>41.99932383514022</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.000883220944888</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.00042986869812</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.628958733854214</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>43.225410774</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:42:39</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>vehicle.dodge.charger_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14.17688528512277</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007568563276724259</v>
+      </c>
+      <c r="D28" t="n">
+        <v>214.8455177433789</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47.26315104833338</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3306080182082951</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.721760511398315</v>
+      </c>
+      <c r="H28" t="n">
+        <v>13.70332527160645</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.63976001739502</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.04009499400854111</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.003298055380582809</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4582071006298065</v>
+      </c>
+      <c r="M28" t="n">
+        <v>41.99924886768491</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.000432216504447</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.995100498199463</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.556845729994197</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>45.721085533</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:43:25</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>vehicle.ford.ambulance</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.36099465980968</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.005406786801895614</v>
+      </c>
+      <c r="D29" t="n">
+        <v>185.7717265328392</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38.89497975149425</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.728608786128461</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.927615165710449</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.299091339111328</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.892186164855957</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02360590361058712</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.006392614915966988</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3961955308914185</v>
+      </c>
+      <c r="M29" t="n">
+        <v>41.99922267077991</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.000635847822286</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.995100975036621</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.812972962079751</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>43.735882253</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:44:08</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>vehicle.lincoln.mkz_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.45045244020891</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.004812546177707997</v>
+      </c>
+      <c r="D30" t="n">
+        <v>192.805540855974</v>
+      </c>
+      <c r="E30" t="n">
+        <v>41.80829812466982</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.559222413226962</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.06467676162719727</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3.47744083404541</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.778840065002441</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.008164472877979279</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0006415434181690216</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3752298951148987</v>
+      </c>
+      <c r="M30" t="n">
+        <v>41.99923548902089</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.000718510037223</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.003454208374023</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.465051076976578</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>44.18067418</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:44:53</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.3313564545567</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005745726111640322</v>
+      </c>
+      <c r="D31" t="n">
+        <v>171.8391963290051</v>
+      </c>
+      <c r="E31" t="n">
+        <v>42.59700862769387</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9367949115112424</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.814935684204102</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.270404815673828</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.907458305358887</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.0003463984758127481</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001122551853768528</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3449074029922485</v>
+      </c>
+      <c r="M31" t="n">
+        <v>41.99939871306688</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.000944833883802</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.036225318908691</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.497401948847606</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>44.336765182</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:45:37</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>vehicle.toyota.prius</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.44353741254689</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.007828324180832584</v>
+      </c>
+      <c r="D32" t="n">
+        <v>156.5482610430918</v>
+      </c>
+      <c r="E32" t="n">
+        <v>41.66975941325654</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.016768086701632</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.494042992591858</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.36748790740967</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.873929977416992</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.01123833283782005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.002197124762460589</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3414853513240814</v>
+      </c>
+      <c r="M32" t="n">
+        <v>41.99922351309786</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.000640650126444</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.019023180007935</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.993524911502232</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>43.771075494</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:46:21</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>vehicle.ford.crown</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14.48617571393104</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01977967175463123</v>
+      </c>
+      <c r="D33" t="n">
+        <v>243.5249733123928</v>
+      </c>
+      <c r="E33" t="n">
+        <v>45.70905104279518</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7422686899080873</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-3.269860029220581</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-16.09280204772949</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.953704833984375</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.2428059875965118</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0420280322432518</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.5280962586402893</v>
+      </c>
+      <c r="M33" t="n">
+        <v>41.99994458162391</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.99999227941613</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.997627973556519</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7.041604069051744</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>53.998637833</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:47:15</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>vehicle.carlamotors.carlacola</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14.67754072360594</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001856195013734881</v>
+      </c>
+      <c r="D34" t="n">
+        <v>250.0974797196686</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40.24605421751039</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.346391588449478</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05888891220092773</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7.170611381530762</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.690560340881348</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.06691494584083557</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.02087157964706421</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.3444262444972992</v>
+      </c>
+      <c r="M34" t="n">
+        <v>41.99938908352769</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.000128121443817</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.99324369430542</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6.269339161337721</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>50.320751794</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:48:05</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>vehicle.vespa.zx125</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.76982882843924</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.00567249879758731</v>
+      </c>
+      <c r="D35" t="n">
+        <v>175.7588976472616</v>
+      </c>
+      <c r="E35" t="n">
+        <v>48.89959981455468</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.144341279403307</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.6293070316314697</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.04806702584028244</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.930567741394043</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02060871943831444</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.003783585503697395</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3354711830615997</v>
+      </c>
+      <c r="M35" t="n">
+        <v>41.9992242936641</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.000656139567844</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.00387167930603</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.87038345156044</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>43.882101751</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:48:49</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.82348312642561</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.006860268006664755</v>
+      </c>
+      <c r="D36" t="n">
+        <v>177.3635541200638</v>
+      </c>
+      <c r="E36" t="n">
+        <v>44.2929054373526</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.028024360537529</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5940477848052979</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.793898820877075</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.674809455871582</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.02261602692306042</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.00376515556126833</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.37519770860672</v>
+      </c>
+      <c r="M36" t="n">
+        <v>41.99923580031523</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.000721432164417</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.000273942947388</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.408976366733313</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>43.301682573</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:49:32</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>vehicle.dodge.charger_police_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14.97022091838553</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01251866253696276</v>
+      </c>
+      <c r="D37" t="n">
+        <v>175.5055698314682</v>
+      </c>
+      <c r="E37" t="n">
+        <v>53.38998318847734</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.636654971167445</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2.181839942932129</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.591999769210815</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.886133193969727</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.044276412576437</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.005183091387152672</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3563589453697205</v>
+      </c>
+      <c r="M37" t="n">
+        <v>41.99924368054354</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.000451451682222</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.978185534477234</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.980701430263145</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>44.508088401</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:50:17</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.sprinter</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.9689892997102</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006486891553346178</v>
+      </c>
+      <c r="D38" t="n">
+        <v>165.3510847492144</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40.85625927906949</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.93473831936717</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.2253389358520508</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.528784275054932</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.732550621032715</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.01005201879888773</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.004479832947254181</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.2805326282978058</v>
+      </c>
+      <c r="M38" t="n">
+        <v>41.99926417963246</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.000798002272138</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.990581870079041</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.846081767507064</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>43.292629502</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:51:00</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>vehicle.audi.etron</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15.02662615869703</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.00633722275619289</v>
+      </c>
+      <c r="D39" t="n">
+        <v>240.8481311835349</v>
+      </c>
+      <c r="E39" t="n">
+        <v>47.77914883830817</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3507810207083821</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1.788235425949097</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.276438236236572</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.960569381713867</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01425653509795666</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.00200000824406743</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3665294945240021</v>
+      </c>
+      <c r="M39" t="n">
+        <v>41.99922576028416</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.000664996836482</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.994923949241638</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.440218163999408</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>45.229134989</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:51:45</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>vehicle.seat.leon</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24</v>
+      </c>
+      <c r="B40" t="n">
+        <v>15.03902068169422</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.005196250929345692</v>
+      </c>
+      <c r="D40" t="n">
+        <v>299.1274344753474</v>
+      </c>
+      <c r="E40" t="n">
+        <v>40.36429612047505</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7751748561859131</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.839709520339966</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.705671310424805</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.009095208719372749</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0005086567252874374</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3115320801734924</v>
+      </c>
+      <c r="M40" t="n">
+        <v>41.99922404823363</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.000647596369087</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.998933672904968</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.97305556033059</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>45.93656255</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:52:31</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>vehicle.volkswagen.t2_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15.32928118679266</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007749420104896298</v>
+      </c>
+      <c r="D41" t="n">
+        <v>133.8384846821427</v>
+      </c>
+      <c r="E41" t="n">
+        <v>55.12514602276497</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.202857800759375</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.3888525664806366</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-3.281936883926392</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.810413360595703</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.00755239324644208</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.004417605698108673</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.3806201815605164</v>
+      </c>
+      <c r="M41" t="n">
+        <v>41.99940183162212</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.000046568874634</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.99737274646759</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6.804699850544163</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>42.972964344</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:53:14</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.cybertruck</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n">
+        <v>15.48011746394572</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.005162539144178887</v>
+      </c>
+      <c r="D42" t="n">
+        <v>86.28106333687901</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20.66628570543253</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.650781895965338</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.348798513412476</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.927671432495117</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.782083511352539</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01889538578689098</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.002660453086718917</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.455750048160553</v>
+      </c>
+      <c r="M42" t="n">
+        <v>41.99938367440743</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.000164671677751</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.033925771713257</v>
+      </c>
+      <c r="P42" t="n">
+        <v>15.72970478243569</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>43.712514789</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:53:58</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>vehicle.lincoln.mkz_2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n">
+        <v>15.52146721200461</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.004143036063618653</v>
+      </c>
+      <c r="D43" t="n">
+        <v>190.4662393890321</v>
+      </c>
+      <c r="E43" t="n">
+        <v>47.44398238134454</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8038966283202171</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.6126056313514709</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.298578858375549</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.789305686950684</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0003970631223637611</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0001356342690996826</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.2099364250898361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>41.99922269284878</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.000565754351032</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.994600176811218</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.028143737415918</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>44.000748537</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:54:42</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>vehicle.ford.mustang</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15.53837645627562</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02832657696222254</v>
+      </c>
+      <c r="D44" t="n">
+        <v>296.9771146774292</v>
+      </c>
+      <c r="E44" t="n">
+        <v>72.75335197889945</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9784935936331749</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1793559193611145</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.353329539299011</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.723684310913086</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.00328917196020484</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.001137057202868164</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.2546612322330475</v>
+      </c>
+      <c r="M44" t="n">
+        <v>41.99922108901785</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.000607829893113</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.996301651000977</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9.723925033123345</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>45.722176889</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:55:27</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>vehicle.carlamotors.firetruck</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29</v>
+      </c>
+      <c r="B45" t="n">
+        <v>15.54292799830826</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.005784132348306673</v>
+      </c>
+      <c r="D45" t="n">
+        <v>289.753290232271</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38.07605894666631</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1330109834671021</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.6448972225189209</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.236446380615234</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.587322235107422</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.02046280726790428</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.005751610733568668</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3933286070823669</v>
+      </c>
+      <c r="M45" t="n">
+        <v>41.99922642502307</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.00052633537625</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.002418994903564</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5.377826353286946</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>45.782385844</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:56:13</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>vehicle.volkswagen.t2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>30</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.59500542622273</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00556995936486528</v>
+      </c>
+      <c r="D46" t="n">
+        <v>142.7635663021356</v>
+      </c>
+      <c r="E46" t="n">
+        <v>41.68588219344383</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.821525506675243</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.145278215408325</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.822175741195679</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.888788223266602</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.000750837498344481</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0006586548988707364</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1242354586720467</v>
+      </c>
+      <c r="M46" t="n">
+        <v>41.9992255695461</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.000545295495028</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.001718044281006</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.119682209835551</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>42.982642192</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:56:56</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.model3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.01343886875469972</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.826784936109938e-08</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.307036340236664</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.6293128728866577</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.00289796688593924</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.17073917388916</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.136974879045738e-05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0004289762873668224</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.522210007162357e-07</v>
+      </c>
+      <c r="M47" t="n">
+        <v>41.99995496524991</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.000142561879827</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.986207485198975</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0003781010663515489</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.002749628</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:58:38</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1823535407738787</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.490282630149023e-07</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.500000238418579</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.452337816357613</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.535540580749512</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-2.031665325164795</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.350174903869629</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.02098779007792473</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.06327437609434128</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.06012607738375664</v>
+      </c>
+      <c r="M48" t="n">
+        <v>41.9999460155785</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.000142948438014</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.995555639266968</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3347209058108062</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.001864038</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:59:17</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16.42821825770718</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.003065670472970286</v>
+      </c>
+      <c r="D49" t="n">
+        <v>151.0863613563124</v>
+      </c>
+      <c r="E49" t="n">
+        <v>42.9035333369975</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11.18386580422521</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.07552004605531693</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2.545776605606079</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.733438491821289</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.002072816016152501</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0005786092369817197</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.2161907106637955</v>
+      </c>
+      <c r="M49" t="n">
+        <v>41.99923159818434</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.000586397886213</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.001827716827393</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5.63483299883131</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>42.275072737</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:59:59</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.model3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14.0465345842421</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.002362175132877772</v>
+      </c>
+      <c r="D50" t="n">
+        <v>311.6431651413441</v>
+      </c>
+      <c r="E50" t="n">
+        <v>53.27063381616608</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3238468170166016</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-16.20574951171875</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9.065713882446289</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1884900033473969</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.666779518127441e-05</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.01915518753230572</v>
+      </c>
+      <c r="M50" t="n">
+        <v>41.99925117470298</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.000733538034298</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.975885629653931</v>
+      </c>
+      <c r="P50" t="n">
+        <v>15.33833603355185</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>52.985630581</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:00:52</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>vehicle.diamondback.century</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14.2228752410959</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.002791768215195926</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7311223149299622</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.145386204123497</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.07981756329536438</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.04036279767751694</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.1499996185302734</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>41.99994598180734</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.000142640408825</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.166277170181274</v>
+      </c>
+      <c r="P51" t="n">
+        <v>40.86946160524418</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.492010222</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:00:55</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>vehicle.gazelle.omafiets</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14.35723962373268</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.002156631508909402</v>
+      </c>
+      <c r="D52" t="n">
+        <v>226.155369207263</v>
+      </c>
+      <c r="E52" t="n">
+        <v>46.61408017971553</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.436694294214249</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.000674346461892128</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03218034282326698</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9.769947052001953</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.001434899400919676</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0036029361654073</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.1499525755643845</v>
+      </c>
+      <c r="M52" t="n">
+        <v>41.99925925903204</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.000762953392296</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.067625761032104</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5.03472382442082</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>44.062214791</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:01:39</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>vehicle.bmw.grandtourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.48699703307306</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.00315702302947969</v>
+      </c>
+      <c r="D53" t="n">
+        <v>518.5000145435333</v>
+      </c>
+      <c r="E53" t="n">
+        <v>32.6150552801264</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.07001590728759766</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-20.9607982635498</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.58959197998047</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.182725116610527</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.01122365891933441</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.393878161907196</v>
+      </c>
+      <c r="M53" t="n">
+        <v>41.99925293644202</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.000460263484277</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2.001592397689819</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.973039635024166</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>65.180981182</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:02:44</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>vehicle.bh.crossbike</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>13.60109280468907</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001814272018916161</v>
+      </c>
+      <c r="D54" t="n">
+        <v>270.6979257725179</v>
+      </c>
+      <c r="E54" t="n">
+        <v>54.09327181335539</v>
+      </c>
+      <c r="F54" t="n">
+        <v>11.54845616361126</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-3.941478252410889</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.5321102142333984</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.998324394226074</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01520567387342453</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03022122010588646</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.3206940293312073</v>
+      </c>
+      <c r="M54" t="n">
+        <v>41.99924282739707</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.000712909485568</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.010073900222778</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.496154004840334</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>47.575242388</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:03:32</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>vehicle.kawasaki.ninja</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14.42416683796726</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.003655803314054371</v>
+      </c>
+      <c r="D55" t="n">
+        <v>281.1776400916278</v>
+      </c>
+      <c r="E55" t="n">
+        <v>54.36420948366867</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14.73871686635539</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-2.029916286468506</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2.389418601989746</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.513181686401367</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02698571607470512</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.02141532674431801</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.2087132483720779</v>
+      </c>
+      <c r="M55" t="n">
+        <v>41.99938789290857</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.000184815172734</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.942433476448059</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.992139499978193</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>48.838030215</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:04:21</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14.69973675376104</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.005749332786791181</v>
+      </c>
+      <c r="D56" t="n">
+        <v>171.7558958157897</v>
+      </c>
+      <c r="E56" t="n">
+        <v>46.65534895577002</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.258849728445057</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-2.299010992050171</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6.399975776672363</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.72817325592041</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.0005513549549505115</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.002691749483346939</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.2307294607162476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>41.99923079088882</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.000606150073458</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.001243352890015</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6.48239603113055</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>43.284274551</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:05:04</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14.80223351418371</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.005079970856345965</v>
+      </c>
+      <c r="D57" t="n">
+        <v>274.0430068671703</v>
+      </c>
+      <c r="E57" t="n">
+        <v>44.38183053926332</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.254690359346569</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5943608283996582</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.837146759033203</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.959429740905762</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.004751760512590408</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.002382587641477585</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.1736211478710175</v>
+      </c>
+      <c r="M57" t="n">
+        <v>41.99923472538342</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.000664416238352</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.981356263160706</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5.739559345935919</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>45.241622885</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:05:49</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.micra</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.08137087889381</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.005456921316253407</v>
+      </c>
+      <c r="D58" t="n">
+        <v>208.1802934966981</v>
+      </c>
+      <c r="E58" t="n">
+        <v>39.72658593504457</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.444477126002312</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.902259349822998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.545459747314453</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.924409866333008</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.001052944455295801</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0002258340828120708</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.3192011713981628</v>
+      </c>
+      <c r="M58" t="n">
+        <v>41.99926053628411</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.000434444689836</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.042555570602417</v>
+      </c>
+      <c r="P58" t="n">
+        <v>11.8451706275665</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>44.065190103</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:06:33</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15.17234057458952</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.004851449924403574</v>
+      </c>
+      <c r="D59" t="n">
+        <v>153.2423948100768</v>
+      </c>
+      <c r="E59" t="n">
+        <v>43.22019625257235</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.040040055289865</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1082100868225098</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-2.6263108253479</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9.67279052734375</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.003915322013199329</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0001014040317386389</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1425816565752029</v>
+      </c>
+      <c r="M59" t="n">
+        <v>41.99923781317366</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.000681067844368</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.001852750778198</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.412395965145338</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>42.224788335</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:07:15</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.model3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.19358055883835</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.003472379389302407</v>
+      </c>
+      <c r="D60" t="n">
+        <v>362.3742414414883</v>
+      </c>
+      <c r="E60" t="n">
+        <v>53.48167178494623</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01467940397560596</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-46.1671257019043</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-31.56943130493164</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.86124324798584</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.41450572013855</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.2141890525817871</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-3.36614203453064</v>
+      </c>
+      <c r="M60" t="n">
+        <v>41.99930440339361</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.000385678919791</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.972011804580688</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5.289467823899519</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>51.275752051</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:08:07</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>vehicle.diamondback.century</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15.29664949030883</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.001647648357959397</v>
+      </c>
+      <c r="D61" t="n">
+        <v>332.1110526025295</v>
+      </c>
+      <c r="E61" t="n">
+        <v>41.5093705332547</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2588538378477097</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-3.127838134765625</v>
+      </c>
+      <c r="H61" t="n">
+        <v>27.18362426757812</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.96080207824707</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.3303201198577881</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.02678729593753815</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9546016454696655</v>
+      </c>
+      <c r="M61" t="n">
+        <v>41.99923832843359</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.000527133347074</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.986243963241577</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.470716025742131</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>47.210884902</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:08:54</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>vehicle.gazelle.omafiets</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15.37723228056602</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.004989632814512516</v>
+      </c>
+      <c r="D62" t="n">
+        <v>189.0895630922168</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43.72620310180355</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.851739793084562</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.199524521827698</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.931707620620728</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.733674049377441</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.0143116656690836</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.001036464003846049</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3181237578392029</v>
+      </c>
+      <c r="M62" t="n">
+        <v>41.99923031675092</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.000596374435163</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.067523002624512</v>
+      </c>
+      <c r="P62" t="n">
+        <v>28.15684100791745</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>44.957989946</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:09:39</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>vehicle.bmw.grandtourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>16</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15.08324401239832</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.002418834693693306</v>
+      </c>
+      <c r="D63" t="n">
+        <v>463.2500129938126</v>
+      </c>
+      <c r="E63" t="n">
+        <v>55.34926511606318</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>40.12941741943359</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-85.48963928222656</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-19.67606163024902</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.009708107449114323</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.004875087179243565</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.1764425039291382</v>
+      </c>
+      <c r="M63" t="n">
+        <v>41.99928516470916</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.000381726624022</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.999850273132324</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.145309787577029</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>68.186218143</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:10:47</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>vehicle.bh.crossbike</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17</v>
+      </c>
+      <c r="B64" t="n">
+        <v>14.94090500011118</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.001613962843788287</v>
+      </c>
+      <c r="D64" t="n">
+        <v>269.8420092407614</v>
+      </c>
+      <c r="E64" t="n">
+        <v>53.7429943914467</v>
+      </c>
+      <c r="F64" t="n">
+        <v>13.22272949200124</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.726914405822754</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.423182964324951</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.970652103424072</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01077411882579327</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.001102445647120476</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.1895923316478729</v>
+      </c>
+      <c r="M64" t="n">
+        <v>41.99930110410213</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.000841183445334</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.001209735870361</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4.328694317178117</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>47.517697019</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:11:35</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>vehicle.kawasaki.ninja</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>18</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.10393392270318</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.003523102984813169</v>
+      </c>
+      <c r="D65" t="n">
+        <v>281.5631098826416</v>
+      </c>
+      <c r="E65" t="n">
+        <v>57.32875891914591</v>
+      </c>
+      <c r="F65" t="n">
+        <v>18.54968719556928</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.8469159603118896</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.9886932373046875</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.767114639282227</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.01757786050438881</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.02022809162735939</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.03159314021468163</v>
+      </c>
+      <c r="M65" t="n">
+        <v>41.99931855596014</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.000323236769069</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.940574884414673</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.155408973937222</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>49.40202518</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:12:24</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.13974324791779</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.005918724226825748</v>
+      </c>
+      <c r="D66" t="n">
+        <v>172.8014383837581</v>
+      </c>
+      <c r="E66" t="n">
+        <v>43.73438392113894</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.522094338899478</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.667522668838501</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-3.252184629440308</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10.27776050567627</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.01519221346825361</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.00408815685659647</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.3099897503852844</v>
+      </c>
+      <c r="M66" t="n">
+        <v>41.99925015412111</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.000739511079933</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.00081729888916</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4.310005948776792</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>43.426505914</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:13:07</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15.17031549387339</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.005204787862806193</v>
+      </c>
+      <c r="D67" t="n">
+        <v>277.6726941810921</v>
+      </c>
+      <c r="E67" t="n">
+        <v>46.19407966616563</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.812578121200204</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9963062405586243</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.27676784992218</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.78679370880127</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.01132950838655233</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.000253991165664047</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.05438119173049927</v>
+      </c>
+      <c r="M67" t="n">
+        <v>41.99923212406753</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.000579014039229</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.981264472007751</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5.196652329032373</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>45.825068862</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:13:53</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.micra</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15.22232673256143</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.004539893237885167</v>
+      </c>
+      <c r="D68" t="n">
+        <v>195.3596878956305</v>
+      </c>
+      <c r="E68" t="n">
+        <v>36.74130279786186</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.25712636113167</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7897552251815796</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7.676966667175293</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.841490745544434</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.003425496630370617</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.001704765018075705</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.5672244429588318</v>
+      </c>
+      <c r="M68" t="n">
+        <v>41.99923338535109</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.000544935728003</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.042521238327026</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5.17101315015781</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>44.759276816</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:14:38</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>22</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15.33874315616049</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.006005243572457318</v>
+      </c>
+      <c r="D69" t="n">
+        <v>154.1556243691593</v>
+      </c>
+      <c r="E69" t="n">
+        <v>43.02689484565053</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.283457712270319</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.2844171524047852</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.667724609375</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.861905097961426</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.006979711819440126</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0009811031632125378</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.3578634858131409</v>
+      </c>
+      <c r="M69" t="n">
+        <v>41.99924396181871</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.000482726420602</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2.001808404922485</v>
+      </c>
+      <c r="P69" t="n">
+        <v>7.868295821734734</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>42.287777191</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:15:20</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.model3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15.19115173859912</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.002131315297348711</v>
+      </c>
+      <c r="D70" t="n">
+        <v>360.6020606160164</v>
+      </c>
+      <c r="E70" t="n">
+        <v>49.60507261243765</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.797505974769592</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-8.736248016357422</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.125120162963867</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.2527798414230347</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.08667746186256409</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.5521330833435059</v>
+      </c>
+      <c r="M70" t="n">
+        <v>41.99926301875598</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.000740179706165</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.962864995002747</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4.273991805955127</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>51.021044891</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:16:11</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>vehicle.diamondback.century</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>24</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15.23036294943305</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.003528385639247555</v>
+      </c>
+      <c r="D71" t="n">
+        <v>327.9028058797121</v>
+      </c>
+      <c r="E71" t="n">
+        <v>39.81093880833942</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.7359873056411743</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.603653907775879</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-16.35706901550293</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9.320772171020508</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.08422740548849106</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.01039735227823257</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.2070868313312531</v>
+      </c>
+      <c r="M71" t="n">
+        <v>41.99923903347204</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.000523907202449</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.989137172698975</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4.973313875382704</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>47.276202063</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:16:59</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>vehicle.gazelle.omafiets</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.2201894476749</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.004790973724649724</v>
+      </c>
+      <c r="D72" t="n">
+        <v>230.3745656311512</v>
+      </c>
+      <c r="E72" t="n">
+        <v>46.98145442496752</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.162449955940247</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.702607870101929</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7.346075057983398</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9.616358757019043</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0213288888335228</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.002901973202824593</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2407664656639099</v>
+      </c>
+      <c r="M72" t="n">
+        <v>41.99925310141015</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.000747989767787</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2.067460775375366</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.556723708907765</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>44.367703984</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:17:43</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>vehicle.bmw.grandtourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>26</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.00156034024909</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.003164222627614488</v>
+      </c>
+      <c r="D73" t="n">
+        <v>514.250014424324</v>
+      </c>
+      <c r="E73" t="n">
+        <v>37.41001863166457</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>46.76340484619141</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-29.77379608154297</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-21.70557975769043</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.08763042837381363</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.008876461535692215</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.3167926371097565</v>
+      </c>
+      <c r="M73" t="n">
+        <v>41.99923919035285</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.000524401432515</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2.000930786132812</v>
+      </c>
+      <c r="P73" t="n">
+        <v>6.367937177895898</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>65.194523734</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:18:48</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>vehicle.bh.crossbike</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14.96578984700201</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.002218763994127388</v>
+      </c>
+      <c r="D74" t="n">
+        <v>240.2856068327092</v>
+      </c>
+      <c r="E74" t="n">
+        <v>47.76827631739434</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9.339983773883432</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.258525848388672</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.100518465042114</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10.05753135681152</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.04685137793421745</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.02150008827447891</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.3048102855682373</v>
+      </c>
+      <c r="M74" t="n">
+        <v>41.99924106833069</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.000707009896595</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.002670288085938</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.72449916044204</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>47.500208517</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:19:36</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>vehicle.kawasaki.ninja</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15.06616575469118</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.003650501106513321</v>
+      </c>
+      <c r="D75" t="n">
+        <v>266.8189721526578</v>
+      </c>
+      <c r="E75" t="n">
+        <v>56.75169233698398</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16.03648802265525</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-3.978898048400879</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.939091444015503</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9.3323974609375</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.01569494232535362</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.02266564220190048</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.2467879205942154</v>
+      </c>
+      <c r="M75" t="n">
+        <v>41.9993807166384</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.000205715172187</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.945480346679688</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5.718008713026413</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>48.643892489</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:20:24</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>29</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15.14035850996069</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.006203034141638294</v>
+      </c>
+      <c r="D76" t="n">
+        <v>176.5456250011921</v>
+      </c>
+      <c r="E76" t="n">
+        <v>43.03888687759172</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.518257984309457</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.6549623012542725</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6.610596656799316</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.651027679443359</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.03613951429724693</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.00338312704116106</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.2551343142986298</v>
+      </c>
+      <c r="M76" t="n">
+        <v>41.99923592196811</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.000525839578371</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2.000768423080444</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4.917796561450433</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>43.395278028</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:21:08</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>30</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.09962703010045</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.004265900707923233</v>
+      </c>
+      <c r="D77" t="n">
+        <v>262.6233264803886</v>
+      </c>
+      <c r="E77" t="n">
+        <v>38.94243821955752</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8732310831546783</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.4140137434005737</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.025167942047119</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9.800990104675293</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.004504326730966568</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001055542845278978</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.1979530602693558</v>
+      </c>
+      <c r="M77" t="n">
+        <v>41.9992550893206</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.000753502106891</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.981315851211548</v>
+      </c>
+      <c r="P77" t="n">
+        <v>7.510509678965524</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>45.063018054</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:21:53</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.micra</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15.18007541304615</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.006109442778008178</v>
+      </c>
+      <c r="D78" t="n">
+        <v>207.2510994551703</v>
+      </c>
+      <c r="E78" t="n">
+        <v>36.65980598723399</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10.7079588714987</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.736042261123657</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.527249813079834</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9.848906517028809</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6.725780258420855e-05</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0002421453245915473</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.3237700760364532</v>
+      </c>
+      <c r="M78" t="n">
+        <v>41.99923703528054</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.000524452432557</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.042560577392578</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5.605527405191968</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>43.637663178</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:22:36</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15.29165943839937</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.005947273799103208</v>
+      </c>
+      <c r="D79" t="n">
+        <v>157.2075688913465</v>
+      </c>
+      <c r="E79" t="n">
+        <v>44.76545259027625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.716464557452127</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1.297159433364868</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.555418491363525</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.848944664001465</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.001613517059013247</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9.841984137892723e-06</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.05523147061467171</v>
+      </c>
+      <c r="M79" t="n">
+        <v>41.99929195005632</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.00037169019844</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2.001829862594604</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4.611933223393443</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>42.464397761</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:23:19</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>vehicle.tesla.model3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.009120893257985763</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.431300230377746e-08</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.165106147527695</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.9483398199081421</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3156584799289703</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10.73116588592529</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-5.026703547628131e-06</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0005885360296815634</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.180197727990162e-06</v>
+      </c>
+      <c r="M80" t="n">
+        <v>41.99994598209005</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.000142616223001</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.963989496231079</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0003636148865924232</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.001924729</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:25:39</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12.1010358770315</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0002469502062682605</v>
+      </c>
+      <c r="D81" t="n">
+        <v>277.9903460480273</v>
+      </c>
+      <c r="E81" t="n">
+        <v>58.31200185418129</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20.14326359704137</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.8320841789245605</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.560297966003418</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9.758514404296875</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.004096425604075193</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.002078087534755468</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.1959009170532227</v>
+      </c>
+      <c r="M81" t="n">
+        <v>41.99928929117189</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.000825514904328</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.945069551467896</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4.262978146625713</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>49.690093168</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:26:28</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.93863895813121</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01192645324352885</v>
+      </c>
+      <c r="D82" t="n">
+        <v>233.4922126606107</v>
+      </c>
+      <c r="E82" t="n">
+        <v>42.87657633150229</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.384637206792831</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2.398281574249268</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.113202571868896</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9.65929126739502</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02750761806964874</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.007806045934557915</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.3191529214382172</v>
+      </c>
+      <c r="M82" t="n">
+        <v>41.99946376611683</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.000955686471452</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.998312950134277</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3.444801388516489</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>45.421475061</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:27:14</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>vehicle.carlamotors.carlacola</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" t="n">
+        <v>13.02669111844589</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.005442293837142594</v>
+      </c>
+      <c r="D83" t="n">
+        <v>194.9282115539536</v>
+      </c>
+      <c r="E83" t="n">
+        <v>45.72339019004721</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.044288229197264</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4486384391784668</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.10912561416626</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9.786340713500977</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.002026223111897707</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.001077336026355624</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.3813638389110565</v>
+      </c>
+      <c r="M83" t="n">
+        <v>41.99924538107942</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.000719427300189</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2.00346851348877</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4.445408776273508</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>43.691146499</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:27:57</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13.74699304265114</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01324623654768601</v>
+      </c>
+      <c r="D84" t="n">
+        <v>170.8860885554459</v>
+      </c>
+      <c r="E84" t="n">
+        <v>53.0699507110985</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.991712298244238</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.7549425363540649</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.858341217041016</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9.693387985229492</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02799511887133121</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.002696031704545021</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.2760322690010071</v>
+      </c>
+      <c r="M84" t="n">
+        <v>41.99923213229195</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2.000648455207954</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.978323459625244</v>
+      </c>
+      <c r="P84" t="n">
+        <v>59.61392808783093</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>43.711969864</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:28:41</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.sprinter</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14.41616915872962</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.009340148932700755</v>
+      </c>
+      <c r="D85" t="n">
+        <v>380.6126774530858</v>
+      </c>
+      <c r="E85" t="n">
+        <v>89.66078464017482</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.759481533430517</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.06729267537593842</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1.841063737869263</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9.761703491210938</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.004902410320937634</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.002190766390413046</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.2451913803815842</v>
+      </c>
+      <c r="M85" t="n">
+        <v>41.99997349228059</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2.000296659291361</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.995351791381836</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4.258122367194174</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>85.48040171700001</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:30:07</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>vehicle.ford.ambulance</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" t="n">
+        <v>14.28073526857762</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0005464592406365369</v>
+      </c>
+      <c r="D86" t="n">
+        <v>227.2957817651331</v>
+      </c>
+      <c r="E86" t="n">
+        <v>46.73636063252343</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10.17876737564802</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.2442505359649658</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2.236828088760376</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9.557000160217285</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2037965208292007</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.002000570297241211</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.1708774119615555</v>
+      </c>
+      <c r="M86" t="n">
+        <v>41.99927373633597</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2.000795362259101</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2.001628637313843</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4.665043740361239</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>45.990598464</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:30:53</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>vehicle.kawasaki.ninja</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14.20812501071</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.02641597461018638</v>
+      </c>
+      <c r="D87" t="n">
+        <v>291.8895374834538</v>
+      </c>
+      <c r="E87" t="n">
+        <v>73.77021909691393</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.554883614182472</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.400277137756348</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.189447641372681</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9.736917495727539</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.00225134938955307</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0007197125814855099</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2187223732471466</v>
+      </c>
+      <c r="M87" t="n">
+        <v>41.99929806812875</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.000838382593105</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.996309518814087</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4.342904078320208</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>45.619626546</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:31:38</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>vehicle.carlamotors.firetruck</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.00801184083453</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.005460327992642087</v>
+      </c>
+      <c r="D88" t="n">
+        <v>191.4897597208619</v>
+      </c>
+      <c r="E88" t="n">
+        <v>48.861153495498</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.40183637663722</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9931817054748535</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-6.811690807342529</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9.816524505615234</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.004219546914100647</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0002193036489188671</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.3317006230354309</v>
+      </c>
+      <c r="M88" t="n">
+        <v>41.99942896925572</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.000945911801512</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.994601249694824</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4.819213953190306</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>43.75671803</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:32:22</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>vehicle.ford.mustang</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" t="n">
+        <v>14.04868781522562</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.005655069098312359</v>
+      </c>
+      <c r="D89" t="n">
+        <v>302.4575029611588</v>
+      </c>
+      <c r="E89" t="n">
+        <v>43.97194448194932</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.288604557514191</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.228243827819824</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7.179415702819824</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.818285942077637</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0339197926223278</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.002909149974584579</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.3110923767089844</v>
+      </c>
+      <c r="M89" t="n">
+        <v>41.99926432136661</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2.000775819282699</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.999066233634949</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3.733700632858832</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>45.937648713</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:33:08</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>vehicle.volkswagen.t2_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" t="n">
+        <v>14.06055266889308</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.003421546071759102</v>
+      </c>
+      <c r="D90" t="n">
+        <v>270.9639469459653</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34.00803120943601</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.417863232083619</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.360375642776489</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.495550632476807</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9.55497932434082</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4605990052223206</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.01751276850700378</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.105968564748764</v>
+      </c>
+      <c r="M90" t="n">
+        <v>41.99924497451892</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.00071074599553</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.994585633277893</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4.307282018623177</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>45.271211054</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:33:53</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>vehicle.vespa.zx125</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>12</v>
+      </c>
+      <c r="B91" t="n">
+        <v>14.42152267439891</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.007543848851928703</v>
+      </c>
+      <c r="D91" t="n">
+        <v>181.0222938358784</v>
+      </c>
+      <c r="E91" t="n">
+        <v>41.6321841494937</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.476632822304964</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.089274883270264</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.603994607925415</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.691307067871094</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.002049459610134363</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.0007546220440417528</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.03890242800116539</v>
+      </c>
+      <c r="M91" t="n">
+        <v>41.99933593468464</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.000295676641361</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.995498180389404</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3.599679567684658</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>43.284067883</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:34:36</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>vehicle.lincoln.mkz_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" t="n">
+        <v>14.32377564210272</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.003537021021911184</v>
+      </c>
+      <c r="D92" t="n">
+        <v>172.7459671199322</v>
+      </c>
+      <c r="E92" t="n">
+        <v>45.68647710690857</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3.238417618907988</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.720866203308105</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-2.977987051010132</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9.855708122253418</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.0004522260278463364</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0003336880472488701</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.2222774773836136</v>
+      </c>
+      <c r="M92" t="n">
+        <v>41.99936667292195</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2.000908897667782</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2.036261081695557</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3.038906679397411</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>43.496363712</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:35:20</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>vehicle.toyota.prius</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>14</v>
+      </c>
+      <c r="B93" t="n">
+        <v>14.43214563678409</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.004308130580919012</v>
+      </c>
+      <c r="D93" t="n">
+        <v>312.8331298505655</v>
+      </c>
+      <c r="E93" t="n">
+        <v>69.69073102672701</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.276197768980637</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.03435475751757622</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.237941384315491</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.25516700744629</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.05948882550001144</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.003608334576711059</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.01687635108828545</v>
+      </c>
+      <c r="M93" t="n">
+        <v>41.99994432194501</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.999966494759094</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.966360926628113</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.677341238341237</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>84.508874115</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:36:44</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>vehicle.harley-davidson.low_rider</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" t="n">
+        <v>14.52423522636332</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.002611058935547874</v>
+      </c>
+      <c r="D94" t="n">
+        <v>174.8687929660082</v>
+      </c>
+      <c r="E94" t="n">
+        <v>41.20029553916538</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.148913709446788</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.252778053283691</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.864099264144897</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9.721216201782227</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.009351247921586037</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0003909701481461525</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.4611849188804626</v>
+      </c>
+      <c r="M94" t="n">
+        <v>41.999230564306</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.000608260073397</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.988845944404602</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4.479690679798754</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>42.797510518</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:37:27</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>vehicle.audi.tt</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17</v>
+      </c>
+      <c r="B95" t="n">
+        <v>14.78510806171167</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.008987911952826992</v>
+      </c>
+      <c r="D95" t="n">
+        <v>173.8468127250671</v>
+      </c>
+      <c r="E95" t="n">
+        <v>48.30636727093952</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.174182966351509</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2395394146442413</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.325350761413574</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9.841085433959961</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.01289896015077829</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001334073720499873</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.2527699768543243</v>
+      </c>
+      <c r="M95" t="n">
+        <v>41.9992381919082</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2.000511727138111</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.00386643409729</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3.525774188491287</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>43.078195626</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:38:53</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.01247684570007039</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.750631320206562e-08</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.297383546829224</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.628255307674408</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.0828913226723671</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.750740051269531</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1.196456832985859e-05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0004285744798835367</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9.192056609208521e-07</v>
+      </c>
+      <c r="M96" t="n">
+        <v>41.99994598215432</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2.000142616626482</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.982691645622253</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.0002807831789977272</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.002254652</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:40:02</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14.78611850499276</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0004509909600790239</v>
+      </c>
+      <c r="D97" t="n">
+        <v>257.4479663167149</v>
+      </c>
+      <c r="E97" t="n">
+        <v>48.64660693128826</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13.7293786671944</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.776239156723022</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5.256807804107666</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.356358528137207</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.004972795490175486</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.003849165979772806</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.2678083777427673</v>
+      </c>
+      <c r="M97" t="n">
+        <v>41.9992334787668</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.000544684739549</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.94597601890564</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6.415199851497098</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>47.328223075</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:40:49</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.01213420535196303</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.842045327090319e-08</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.500000238418579</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.448077067732811</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.9482830166816711</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.004350811243057251</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10.13110256195068</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-1.046249508362962e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0003652723098639399</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.018196240300313e-07</v>
+      </c>
+      <c r="M98" t="n">
+        <v>41.99994598215005</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.000142617006907</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.987856149673462</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.0002354763698006765</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.002005754</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:43:04</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.31417304214788</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.002553922655352284</v>
+      </c>
+      <c r="D99" t="n">
+        <v>167.8605284262449</v>
+      </c>
+      <c r="E99" t="n">
+        <v>42.1108746578393</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.514805712271482</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.001468155533075333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.04326430708169937</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.789904594421387</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.02041994407773018</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.001488868147134781</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.09271357953548431</v>
+      </c>
+      <c r="M99" t="n">
+        <v>41.99933178348317</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.000876271751068</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2.000601530075073</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3.973236592881921</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>42.481968201</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:43:46</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>vehicle.dodge.charger_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="n">
+        <v>13.933252154236</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.008385616635792103</v>
+      </c>
+      <c r="D100" t="n">
+        <v>163.376426756382</v>
+      </c>
+      <c r="E100" t="n">
+        <v>47.68526835078956</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6.108401220291853</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2.595689535140991</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.888729810714722</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9.672607421875</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.004165736027061939</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0005399477668106556</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.2486312091350555</v>
+      </c>
+      <c r="M100" t="n">
+        <v>41.99928420423461</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.000816648920493</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.003899097442627</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4.549888244290656</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>43.133910828</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:44:30</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>vehicle.nissan.patrol_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01326692361182065</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.873983946813087e-08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.650000214576721</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.31554688513279</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.4690631926059723</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.2378328591585159</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10.11056518554688</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1.323353899351787e-05</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0005915576475672424</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.230687985298573e-06</v>
+      </c>
+      <c r="M101" t="n">
+        <v>41.9999369990789</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.000142671084936</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.979195952415466</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0007807508415083997</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.002014953</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:47:40</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>vehicle.audi.a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14.80533655102746</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0003492614052547494</v>
+      </c>
+      <c r="D102" t="n">
+        <v>278.4463361222297</v>
+      </c>
+      <c r="E102" t="n">
+        <v>58.18814067123458</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13.78362831473351</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.6422321200370789</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.229638397693634</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.867183685302734</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03138820827007294</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.002860820153728127</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.2210593372583389</v>
+      </c>
+      <c r="M102" t="n">
+        <v>41.9992406798639</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.000559693046735</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.944179773330688</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5.369751575000711</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>47.024327514</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:48:27</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>vehicle.yamaha.yzf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>14.5306788953811</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01197845578040074</v>
+      </c>
+      <c r="D103" t="n">
+        <v>250.9270378947258</v>
+      </c>
+      <c r="E103" t="n">
+        <v>50.42979457479669</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.849264904856682</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.6629815101623535</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7.625212669372559</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9.621594429016113</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.1461760699748993</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.008913308382034302</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.3248006999492645</v>
+      </c>
+      <c r="M103" t="n">
+        <v>41.99927046096224</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.000769454698765</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.997991323471069</v>
+      </c>
+      <c r="P103" t="n">
+        <v>7.767401529644176</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>44.824735756</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:49:12</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>vehicle.carlamotors.carlacola</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4</v>
+      </c>
+      <c r="B104" t="n">
+        <v>14.76906838122313</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.005390344847443676</v>
+      </c>
+      <c r="D104" t="n">
+        <v>191.7545102527365</v>
+      </c>
+      <c r="E104" t="n">
+        <v>43.87731257773703</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6.606173755135387</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.300394058227539</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8.075959205627441</v>
+      </c>
+      <c r="I104" t="n">
+        <v>9.76343822479248</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.008360294625163078</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.0006503146141767502</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.2531639635562897</v>
+      </c>
+      <c r="M104" t="n">
+        <v>41.99926134474435</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2.000739505177577</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2.003451824188232</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4.263306725004331</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>42.745376514</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:49:55</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>vehicle.mini.cooper_s_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15.16282775960578</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01660379143133024</v>
+      </c>
+      <c r="D105" t="n">
+        <v>256.438537877053</v>
+      </c>
+      <c r="E105" t="n">
+        <v>85.4832081196364</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.832108858972788</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.3789482712745667</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-1.003319501876831</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9.56340217590332</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.005882573779672384</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.005133822560310364</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-0.1083384081721306</v>
+      </c>
+      <c r="M105" t="n">
+        <v>41.99993756469436</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.000053929668423</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.977646231651306</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4.863938406211697</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>80.84947134799999</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:51:15</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>vehicle.mercedes.sprinter</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15.63025098547837</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.003179200362022991</v>
+      </c>
+      <c r="D106" t="n">
+        <v>246.6187353027053</v>
+      </c>
+      <c r="E106" t="n">
+        <v>54.70610164658865</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.634486708790064</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8381717205047607</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.100489139556885</v>
+      </c>
+      <c r="I106" t="n">
+        <v>9.558972358703613</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.007111503276973963</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0007689637131989002</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.1674972176551819</v>
+      </c>
+      <c r="M106" t="n">
+        <v>41.99930176692123</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2.000372102164423</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.995297908782959</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5.429404271517721</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>44.757064369</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:52:00</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>vehicle.ford.ambulance</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
